--- a/raw-data/JRL_block1_30_11_4.xlsx
+++ b/raw-data/JRL_block1_30_11_4.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">1163254352</definedName>
+    <definedName name="MethodPointer1">1357513024</definedName>
     <definedName name="MethodPointer2">412</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_11_4.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_11_5.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -529,7 +529,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFABCEEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC9E0F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAD7EF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,31 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9CC5E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFABCEEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBAD7EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF428EC7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF60A0D1"/>
+        <fgColor rgb="FF7EB2DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,19 +583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7EB2DB"/>
+        <fgColor rgb="FF60A0D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5197CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6FA9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -696,61 +696,58 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1096,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.76423611111111101</v>
+        <v>0.7663888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1634,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1645,7 +1642,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1688,179 +1685,179 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D49" s="9">
         <v>11</v>
       </c>
       <c r="E49" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F49" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G49" s="9">
         <v>11</v>
       </c>
       <c r="H49" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I49" s="9">
+        <v>14</v>
+      </c>
+      <c r="J49" s="9">
+        <v>13</v>
+      </c>
+      <c r="K49" s="9">
+        <v>13</v>
+      </c>
+      <c r="L49" s="9">
         <v>11</v>
       </c>
-      <c r="J49" s="9">
-        <v>11</v>
-      </c>
-      <c r="K49" s="9">
-        <v>14</v>
-      </c>
-      <c r="L49" s="9">
-        <v>13</v>
-      </c>
       <c r="M49" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N49" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="10">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="D50" s="11">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="E50" s="12">
-        <v>1.155</v>
+        <v>0.997</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1.028</v>
       </c>
       <c r="F50" s="11">
-        <v>0.94099999999999995</v>
+        <v>1.095</v>
       </c>
       <c r="G50" s="11">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="H50" s="13">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="J50" s="14">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="K50" s="14">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="L50" s="11">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="M50" s="15">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="N50" s="11">
-        <v>0.90800000000000003</v>
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="J50" s="13">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K50" s="13">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L50" s="13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="M50" s="12">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="N50" s="12">
+        <v>0.86199999999999999</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>9</v>
-      </c>
-      <c r="D51" s="9">
-        <v>12</v>
-      </c>
-      <c r="E51" s="9">
-        <v>57</v>
-      </c>
-      <c r="F51" s="16">
-        <v>164</v>
-      </c>
-      <c r="G51" s="9">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="D51" s="14">
+        <v>385</v>
+      </c>
+      <c r="E51" s="15">
+        <v>121</v>
+      </c>
+      <c r="F51" s="9">
+        <v>33</v>
+      </c>
+      <c r="G51" s="16">
+        <v>219</v>
       </c>
       <c r="H51" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I51" s="9">
-        <v>28</v>
-      </c>
-      <c r="J51" s="9">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="J51" s="16">
+        <v>230</v>
       </c>
       <c r="K51" s="9">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="L51" s="17">
-        <v>1081</v>
+        <v>892</v>
       </c>
       <c r="M51" s="9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N51" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="18">
-        <v>1.419</v>
-      </c>
-      <c r="D52" s="15">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="E52" s="13">
-        <v>1.095</v>
-      </c>
-      <c r="F52" s="19">
-        <v>1.224</v>
+        <v>1.482</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E52" s="11">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1.018</v>
       </c>
       <c r="G52" s="12">
-        <v>1.177</v>
-      </c>
-      <c r="H52" s="13">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="J52" s="12">
-        <v>1.161</v>
-      </c>
-      <c r="K52" s="14">
-        <v>1.0569999999999999</v>
+        <v>0.86</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J52" s="19">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="K52" s="12">
+        <v>0.86699999999999999</v>
       </c>
       <c r="L52" s="12">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="M52" s="15">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="N52" s="12">
-        <v>1.175</v>
+        <v>0.876</v>
+      </c>
+      <c r="M52" s="11">
+        <v>1.044</v>
+      </c>
+      <c r="N52" s="19">
+        <v>1.2310000000000001</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9">
@@ -1870,506 +1867,506 @@
         <v>13</v>
       </c>
       <c r="E53" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F53" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G53" s="9">
-        <v>11</v>
-      </c>
-      <c r="H53" s="9">
+        <v>8</v>
+      </c>
+      <c r="H53" s="20">
+        <v>487</v>
+      </c>
+      <c r="I53" s="21">
+        <v>1109</v>
+      </c>
+      <c r="J53" s="9">
+        <v>68</v>
+      </c>
+      <c r="K53" s="9">
+        <v>53</v>
+      </c>
+      <c r="L53" s="9">
+        <v>62</v>
+      </c>
+      <c r="M53" s="9">
+        <v>26</v>
+      </c>
+      <c r="N53" s="9">
         <v>12</v>
-      </c>
-      <c r="I53" s="9">
-        <v>10</v>
-      </c>
-      <c r="J53" s="9">
-        <v>13</v>
-      </c>
-      <c r="K53" s="20">
-        <v>1277</v>
-      </c>
-      <c r="L53" s="16">
-        <v>139</v>
-      </c>
-      <c r="M53" s="21">
-        <v>460</v>
-      </c>
-      <c r="N53" s="9">
-        <v>11</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="34"/>
-      <c r="C54" s="12">
-        <v>1.196</v>
-      </c>
-      <c r="D54" s="12">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E54" s="19">
-        <v>1.242</v>
-      </c>
-      <c r="F54" s="22">
-        <v>1.288</v>
-      </c>
-      <c r="G54" s="14">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="H54" s="18">
-        <v>1.423</v>
-      </c>
-      <c r="I54" s="10">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="J54" s="22">
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="K54" s="18">
-        <v>1.4379999999999999</v>
-      </c>
-      <c r="L54" s="13">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="M54" s="14">
-        <v>1.02</v>
-      </c>
-      <c r="N54" s="18">
-        <v>1.4219999999999999</v>
+      <c r="B54" s="33"/>
+      <c r="C54" s="22">
+        <v>1.345</v>
+      </c>
+      <c r="D54" s="23">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E54" s="24">
+        <v>1.123</v>
+      </c>
+      <c r="F54" s="11">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="I54" s="24">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="J54" s="24">
+        <v>1.117</v>
+      </c>
+      <c r="K54" s="11">
+        <v>1.081</v>
+      </c>
+      <c r="L54" s="11">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="M54" s="25">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="N54" s="26">
+        <v>1.673</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D55" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E55" s="9">
+        <v>11</v>
+      </c>
+      <c r="F55" s="9">
         <v>12</v>
       </c>
-      <c r="F55" s="9">
-        <v>22</v>
-      </c>
       <c r="G55" s="9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H55" s="9">
-        <v>38</v>
-      </c>
-      <c r="I55" s="23">
-        <v>246</v>
+        <v>11</v>
+      </c>
+      <c r="I55" s="9">
+        <v>71</v>
       </c>
       <c r="J55" s="9">
-        <v>13</v>
-      </c>
-      <c r="K55" s="9">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="K55" s="16">
+        <v>218</v>
       </c>
       <c r="L55" s="9">
         <v>11</v>
       </c>
-      <c r="M55" s="24">
-        <v>950</v>
+      <c r="M55" s="17">
+        <v>908</v>
       </c>
       <c r="N55" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
-      <c r="C56" s="25">
-        <v>1.371</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="E56" s="18">
-        <v>1.4139999999999999</v>
-      </c>
-      <c r="F56" s="18">
-        <v>1.393</v>
-      </c>
-      <c r="G56" s="25">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="H56" s="25">
-        <v>1.333</v>
-      </c>
-      <c r="I56" s="26">
-        <v>1.4770000000000001</v>
-      </c>
-      <c r="J56" s="27">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="K56" s="26">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="L56" s="28">
-        <v>1.53</v>
-      </c>
-      <c r="M56" s="12">
-        <v>1.179</v>
-      </c>
-      <c r="N56" s="14">
-        <v>1.05</v>
+      <c r="B56" s="33"/>
+      <c r="C56" s="22">
+        <v>1.347</v>
+      </c>
+      <c r="D56" s="27">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="G56" s="10">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="H56" s="19">
+        <v>1.214</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="J56" s="24">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="K56" s="19">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="L56" s="24">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="M56" s="22">
+        <v>1.357</v>
+      </c>
+      <c r="N56" s="28">
+        <v>1.395</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="32" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="9">
+        <v>14</v>
+      </c>
+      <c r="D57" s="9">
+        <v>14</v>
+      </c>
+      <c r="E57" s="9">
         <v>12</v>
       </c>
-      <c r="D57" s="9">
-        <v>12</v>
-      </c>
-      <c r="E57" s="29">
-        <v>905</v>
-      </c>
       <c r="F57" s="9">
-        <v>12</v>
-      </c>
-      <c r="G57" s="16">
-        <v>139</v>
+        <v>62</v>
+      </c>
+      <c r="G57" s="9">
+        <v>57</v>
       </c>
       <c r="H57" s="9">
-        <v>16</v>
-      </c>
-      <c r="I57" s="23">
-        <v>223</v>
+        <v>10</v>
+      </c>
+      <c r="I57" s="29">
+        <v>766</v>
       </c>
       <c r="J57" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K57" s="9">
-        <v>52</v>
-      </c>
-      <c r="L57" s="16">
-        <v>165</v>
+        <v>10</v>
+      </c>
+      <c r="L57" s="9">
+        <v>15</v>
       </c>
       <c r="M57" s="9">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N57" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
-      <c r="C58" s="25">
-        <v>1.3340000000000001</v>
-      </c>
-      <c r="D58" s="12">
-        <v>1.181</v>
-      </c>
-      <c r="E58" s="18">
-        <v>1.431</v>
-      </c>
-      <c r="F58" s="22">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="G58" s="25">
-        <v>1.3440000000000001</v>
-      </c>
-      <c r="H58" s="27">
-        <v>1.619</v>
-      </c>
-      <c r="I58" s="27">
-        <v>1.6160000000000001</v>
-      </c>
-      <c r="J58" s="26">
-        <v>1.458</v>
-      </c>
-      <c r="K58" s="28">
-        <v>1.52</v>
-      </c>
-      <c r="L58" s="18">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="M58" s="22">
-        <v>1.294</v>
-      </c>
-      <c r="N58" s="27">
-        <v>1.595</v>
+      <c r="B58" s="33"/>
+      <c r="C58" s="28">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="F58" s="24">
+        <v>1.123</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1.089</v>
+      </c>
+      <c r="H58" s="19">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="I58" s="25">
+        <v>1.248</v>
+      </c>
+      <c r="J58" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="K58" s="19">
+        <v>1.177</v>
+      </c>
+      <c r="L58" s="24">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="M58" s="12">
+        <v>0.877</v>
+      </c>
+      <c r="N58" s="18">
+        <v>1.4930000000000001</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="9">
+        <v>15</v>
+      </c>
+      <c r="D59" s="9">
         <v>12</v>
       </c>
-      <c r="D59" s="9">
-        <v>18</v>
-      </c>
-      <c r="E59" s="23">
-        <v>196</v>
+      <c r="E59" s="9">
+        <v>21</v>
       </c>
       <c r="F59" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G59" s="9">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H59" s="9">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9">
+        <v>10</v>
+      </c>
+      <c r="J59" s="9">
+        <v>22</v>
+      </c>
+      <c r="K59" s="9">
+        <v>65</v>
+      </c>
+      <c r="L59" s="9">
+        <v>11</v>
+      </c>
+      <c r="M59" s="9">
         <v>9</v>
       </c>
-      <c r="J59" s="9">
-        <v>83</v>
-      </c>
-      <c r="K59" s="9">
-        <v>9</v>
-      </c>
-      <c r="L59" s="9">
+      <c r="N59" s="9">
         <v>14</v>
-      </c>
-      <c r="M59" s="9">
-        <v>45</v>
-      </c>
-      <c r="N59" s="9">
-        <v>13</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
-      <c r="C60" s="27">
-        <v>1.593</v>
-      </c>
-      <c r="D60" s="19">
-        <v>1.2529999999999999</v>
-      </c>
-      <c r="E60" s="25">
-        <v>1.371</v>
-      </c>
-      <c r="F60" s="26">
-        <v>1.466</v>
-      </c>
-      <c r="G60" s="22">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="H60" s="18">
-        <v>1.42</v>
-      </c>
-      <c r="I60" s="22">
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="J60" s="18">
-        <v>1.389</v>
-      </c>
-      <c r="K60" s="18">
-        <v>1.385</v>
-      </c>
-      <c r="L60" s="25">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="M60" s="25">
-        <v>1.331</v>
-      </c>
-      <c r="N60" s="30">
-        <v>1.6859999999999999</v>
+      <c r="B60" s="33"/>
+      <c r="C60" s="25">
+        <v>1.268</v>
+      </c>
+      <c r="D60" s="24">
+        <v>1.105</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="F60" s="19">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="G60" s="24">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="H60" s="24">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I60" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="J60" s="22">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="K60" s="25">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="L60" s="24">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="M60" s="19">
+        <v>1.238</v>
+      </c>
+      <c r="N60" s="18">
+        <v>1.4930000000000001</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="9">
         <v>13</v>
       </c>
-      <c r="D61" s="31">
-        <v>361</v>
-      </c>
-      <c r="E61" s="32">
-        <v>1138</v>
+      <c r="D61" s="9">
+        <v>20</v>
+      </c>
+      <c r="E61" s="9">
+        <v>16</v>
       </c>
       <c r="F61" s="9">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="G61" s="9">
-        <v>54</v>
-      </c>
-      <c r="H61" s="32">
-        <v>1126</v>
-      </c>
-      <c r="I61" s="23">
-        <v>206</v>
-      </c>
-      <c r="J61" s="9">
-        <v>14</v>
-      </c>
-      <c r="K61" s="9">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="H61" s="9">
+        <v>12</v>
+      </c>
+      <c r="I61" s="9">
+        <v>12</v>
+      </c>
+      <c r="J61" s="30">
+        <v>254</v>
+      </c>
+      <c r="K61" s="17">
+        <v>893</v>
       </c>
       <c r="L61" s="9">
-        <v>10</v>
-      </c>
-      <c r="M61" s="31">
-        <v>328</v>
+        <v>41</v>
+      </c>
+      <c r="M61" s="9">
+        <v>17</v>
       </c>
       <c r="N61" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="34"/>
-      <c r="C62" s="26">
-        <v>1.4590000000000001</v>
-      </c>
-      <c r="D62" s="13">
-        <v>1.107</v>
-      </c>
-      <c r="E62" s="14">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="F62" s="19">
-        <v>1.2569999999999999</v>
-      </c>
-      <c r="G62" s="22">
-        <v>1.306</v>
-      </c>
-      <c r="H62" s="26">
-        <v>1.4530000000000001</v>
-      </c>
-      <c r="I62" s="26">
-        <v>1.45</v>
-      </c>
-      <c r="J62" s="12">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="K62" s="22">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="L62" s="19">
-        <v>1.23</v>
-      </c>
-      <c r="M62" s="25">
-        <v>1.337</v>
+      <c r="B62" s="33"/>
+      <c r="C62" s="31">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="D62" s="24">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F62" s="25">
+        <v>1.256</v>
+      </c>
+      <c r="G62" s="24">
+        <v>1.137</v>
+      </c>
+      <c r="H62" s="22">
+        <v>1.353</v>
+      </c>
+      <c r="I62" s="22">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="J62" s="22">
+        <v>1.321</v>
+      </c>
+      <c r="K62" s="25">
+        <v>1.278</v>
+      </c>
+      <c r="L62" s="24">
+        <v>1.141</v>
+      </c>
+      <c r="M62" s="24">
+        <v>1.1739999999999999</v>
       </c>
       <c r="N62" s="25">
-        <v>1.369</v>
+        <v>1.3080000000000001</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="32" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="9">
+        <v>14</v>
+      </c>
+      <c r="D63" s="9">
+        <v>11</v>
+      </c>
+      <c r="E63" s="9">
+        <v>9</v>
+      </c>
+      <c r="F63" s="9">
+        <v>12</v>
+      </c>
+      <c r="G63" s="9">
         <v>17</v>
-      </c>
-      <c r="D63" s="9">
-        <v>10</v>
-      </c>
-      <c r="E63" s="9">
-        <v>15</v>
-      </c>
-      <c r="F63" s="9">
-        <v>15</v>
-      </c>
-      <c r="G63" s="9">
-        <v>13</v>
       </c>
       <c r="H63" s="9">
         <v>15</v>
       </c>
       <c r="I63" s="9">
+        <v>9</v>
+      </c>
+      <c r="J63" s="9">
+        <v>14</v>
+      </c>
+      <c r="K63" s="9">
+        <v>12</v>
+      </c>
+      <c r="L63" s="9">
         <v>15</v>
-      </c>
-      <c r="J63" s="9">
-        <v>13</v>
-      </c>
-      <c r="K63" s="9">
-        <v>13</v>
-      </c>
-      <c r="L63" s="9">
-        <v>13</v>
       </c>
       <c r="M63" s="9">
         <v>11</v>
       </c>
       <c r="N63" s="9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
-      <c r="C64" s="14">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="D64" s="11">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E64" s="14">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="F64" s="14">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="G64" s="12">
-        <v>1.1679999999999999</v>
-      </c>
-      <c r="H64" s="12">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="I64" s="19">
-        <v>1.2470000000000001</v>
-      </c>
-      <c r="J64" s="10">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="K64" s="19">
-        <v>1.2310000000000001</v>
-      </c>
-      <c r="L64" s="12">
-        <v>1.153</v>
-      </c>
-      <c r="M64" s="10">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="N64" s="10">
-        <v>1.002</v>
+      <c r="B64" s="33"/>
+      <c r="C64" s="11">
+        <v>1.034</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0.874</v>
+      </c>
+      <c r="E64" s="24">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="F64" s="11">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="G64" s="22">
+        <v>1.335</v>
+      </c>
+      <c r="H64" s="25">
+        <v>1.266</v>
+      </c>
+      <c r="I64" s="25">
+        <v>1.31</v>
+      </c>
+      <c r="J64" s="19">
+        <v>1.234</v>
+      </c>
+      <c r="K64" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="L64" s="24">
+        <v>1.119</v>
+      </c>
+      <c r="M64" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="N64" s="12">
+        <v>0.86599999999999999</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
